--- a/po_analysis_by_asin/B0CTNYTX8Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNYTX8Y_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>144</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>32</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>32</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>384</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>24</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>64</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>

--- a/po_analysis_by_asin/B0CTNYTX8Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNYTX8Y_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,271 @@
       </c>
       <c r="B6" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>115</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29.07704049264214</v>
+      </c>
+      <c r="D2" t="n">
+        <v>191.2258935531436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26.54348589433834</v>
+      </c>
+      <c r="D3" t="n">
+        <v>185.2084335605248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.512602937479897</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171.1152464075013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.060619302550235</v>
+      </c>
+      <c r="D5" t="n">
+        <v>161.5270810883714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-18.2004415610809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>145.7932776904268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-27.21709778338595</v>
+      </c>
+      <c r="D7" t="n">
+        <v>138.121270757534</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-39.61854732264456</v>
+      </c>
+      <c r="D8" t="n">
+        <v>119.5852762229287</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-112.6792077705216</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.23129680829454</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-117.9306563837489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39.02832308781102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-124.4445558340624</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.30561507880076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-131.3318866590995</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34.65159813832357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-136.0414485490621</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.79815682214603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-137.517972666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.5527982567921</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-148.2199534304436</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.22711703271167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-153.3316571229016</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.19563334744183</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-163.6497011964348</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.085709060724422</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTNYTX8Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNYTX8Y_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>115</v>
       </c>
-      <c r="C2" t="n">
-        <v>29.07704049264214</v>
-      </c>
-      <c r="D2" t="n">
-        <v>191.2258935531436</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>103</v>
       </c>
-      <c r="C3" t="n">
-        <v>26.54348589433834</v>
-      </c>
-      <c r="D3" t="n">
-        <v>185.2084335605248</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>92</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.512602937479897</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171.1152464075013</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
-        <v>-7.060619302550235</v>
-      </c>
-      <c r="D5" t="n">
-        <v>161.5270810883714</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>64</v>
       </c>
-      <c r="C6" t="n">
-        <v>-18.2004415610809</v>
-      </c>
-      <c r="D6" t="n">
-        <v>145.7932776904268</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>52</v>
       </c>
-      <c r="C7" t="n">
-        <v>-27.21709778338595</v>
-      </c>
-      <c r="D7" t="n">
-        <v>138.121270757534</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
-        <v>-39.61854732264456</v>
-      </c>
-      <c r="D8" t="n">
-        <v>119.5852762229287</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-112.6792077705216</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51.23129680829454</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-117.9306563837489</v>
-      </c>
-      <c r="D10" t="n">
-        <v>39.02832308781102</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-124.4445558340624</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33.30561507880076</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-131.3318866590995</v>
-      </c>
-      <c r="D12" t="n">
-        <v>34.65159813832357</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-136.0414485490621</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32.79815682214603</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-137.517972666</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22.5527982567921</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-148.2199534304436</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.22711703271167</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>-153.3316571229016</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.19563334744183</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -843,12 +743,6 @@
       </c>
       <c r="B17" t="n">
         <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-163.6497011964348</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.085709060724422</v>
       </c>
     </row>
   </sheetData>
